--- a/results/optimizationH12.xlsx
+++ b/results/optimizationH12.xlsx
@@ -161,9 +161,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -240,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -262,6 +263,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -565,35 +572,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="B12:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -606,22 +613,22 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -634,7 +641,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -663,7 +670,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -678,7 +685,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -697,7 +704,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -718,7 +725,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -741,7 +748,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -765,6 +772,10 @@
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
+      <c r="K16">
+        <f>980/5400</f>
+        <v>0.18148148148148149</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -949,210 +960,210 @@
       <c r="A25" s="1">
         <v>2</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="9">
         <v>4.2307268810524601E-2</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>5</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="9">
         <v>1.1951000985133201E-2</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="9">
         <v>1.4800865117606799E-2</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="9">
         <v>1.8358056177343499E-2</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>8</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="9">
         <v>8.1825740497267607E-3</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="9">
         <v>1.37359653053582E-2</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="9">
         <v>5.6343741084645699E-3</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="9">
         <v>6.5505673643004199E-3</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>10</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="9">
         <v>9.1315117419076205E-3</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="9">
         <v>6.9246538685588804E-3</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="9">
         <v>8.6244536208557095E-3</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="9">
         <v>3.6733845030857098E-3</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="9">
         <v>2.4201734260933298E-2</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>12</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="9">
         <v>8.9147359914755198E-3</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="9">
         <v>7.1220145476581396E-3</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="9">
         <v>4.4203736056003104E-3</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="9">
         <v>5.5789271951210296E-3</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="9">
         <v>4.5115187718742598E-3</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="9">
         <v>1.7858422905135301E-3</v>
       </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>15</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="9">
         <v>1.2223353829693299E-2</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="9">
         <v>9.0737090720359008E-3</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="9">
         <v>4.6909330603591296E-3</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="9">
         <v>2.2092649607179998E-3</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="9">
         <v>3.4037159340948699E-3</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="9">
         <v>2.3475099651415199E-3</v>
       </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>20</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="9">
         <v>6.9270141066896298E-3</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="9">
         <v>5.0378076423489501E-3</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="9">
         <v>2.1193077793090899E-3</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="9">
         <v>2.8951712024073801E-3</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="9">
         <v>1.4126241158954199E-3</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="9">
         <v>2.03515598203452E-3</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="9">
         <v>2.1549128902068801E-3</v>
       </c>
-      <c r="I31" s="2"/>
+      <c r="I31" s="9"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>25</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="9">
         <v>8.1778484847711708E-3</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="9">
         <v>6.1469302102890198E-3</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="9">
         <v>3.1464856931428501E-3</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="9">
         <v>2.32384286859643E-3</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="9">
         <v>3.3967824802690898E-3</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="9">
         <v>1.46024439602122E-3</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="9">
         <v>2.1192557449020602E-3</v>
       </c>
-      <c r="I32" s="2"/>
+      <c r="I32" s="9"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>50</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="9">
         <v>6.3192180977245493E-2</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="9">
         <v>3.3270559355943898E-2</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="9">
         <v>1.8512148389393001E-3</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="9">
         <v>8.1510100235256003E-4</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="9">
         <v>1.1390017258532099E-3</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="9">
         <v>1.07844967655002E-3</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="9">
         <v>1.8391981554373199E-3</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="9">
         <v>1.2037433883651701E-3</v>
       </c>
     </row>
@@ -1160,28 +1171,28 @@
       <c r="A34" s="1">
         <v>75</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="9">
         <v>2.0162037288331399E-3</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="9">
         <v>1.4426031780654901E-3</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="9">
         <v>1.4574233875467601E-3</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="9">
         <v>9.3245150377327304E-4</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="9">
         <v>7.3512141412904099E-4</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="9">
         <v>1.57140425892813E-3</v>
       </c>
     </row>
